--- a/log/unet_configs.xlsx
+++ b/log/unet_configs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmartinez-villar/Desktop/S2-waterbodies/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7659954F-C18F-CA4D-B3F2-115553208456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13AE661-1694-A94F-B818-81BDFC0456D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="12640" windowWidth="28040" windowHeight="17440" xr2:uid="{31B88E96-1B57-9A43-93F2-982B76B39EEB}"/>
+    <workbookView xWindow="23160" yWindow="11360" windowWidth="28040" windowHeight="17440" xr2:uid="{31B88E96-1B57-9A43-93F2-982B76B39EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>unet1_1</t>
   </si>
@@ -92,64 +92,58 @@
     <t>unet6_1</t>
   </si>
   <si>
-    <t>down_op</t>
-  </si>
-  <si>
     <t>max pooling</t>
   </si>
   <si>
-    <t>stride conv HxW</t>
-  </si>
-  <si>
-    <t>stride conv HxWxC</t>
-  </si>
-  <si>
-    <t>last_op</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>down_op_pos</t>
-  </si>
-  <si>
     <t>after block</t>
   </si>
   <si>
-    <t>first layer</t>
-  </si>
-  <si>
     <t>residual</t>
   </si>
   <si>
-    <t>first-to-last</t>
-  </si>
-  <si>
-    <t>input-to-last</t>
-  </si>
-  <si>
-    <t>nr_layers</t>
-  </si>
-  <si>
-    <t>stackable</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>down_op_dim</t>
-  </si>
-  <si>
-    <t>HxW</t>
-  </si>
-  <si>
-    <t>HxWxC</t>
-  </si>
-  <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>after first layer</t>
+  </si>
+  <si>
+    <t>input-to-output</t>
+  </si>
+  <si>
+    <t>channel_doubling</t>
+  </si>
+  <si>
+    <t>in block</t>
+  </si>
+  <si>
+    <t>inter_block_down_op</t>
+  </si>
+  <si>
+    <t>H,W halving</t>
+  </si>
+  <si>
+    <t>intra_block_down_op</t>
+  </si>
+  <si>
+    <t>stride conv (H,W,C)</t>
+  </si>
+  <si>
+    <t>stride conv (H,W)</t>
+  </si>
+  <si>
+    <t>stackable_block</t>
+  </si>
+  <si>
+    <t>layers_in_block</t>
   </si>
 </sst>
 </file>
@@ -577,45 +571,45 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -626,22 +620,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -652,22 +646,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -678,22 +672,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -704,22 +698,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -730,22 +724,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -756,22 +750,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -782,22 +776,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -808,22 +802,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -834,22 +828,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -860,22 +854,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -886,22 +880,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,22 +906,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -938,22 +932,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -964,22 +958,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -990,22 +984,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1016,22 +1010,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1042,22 +1036,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,26 +1062,27 @@
         <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/log/unet_configs.xlsx
+++ b/log/unet_configs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmartinez-villar/Desktop/S2-waterbodies/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13AE661-1694-A94F-B818-81BDFC0456D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5167835-C9F8-0C4C-B208-E47F36564FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="11360" windowWidth="28040" windowHeight="17440" xr2:uid="{31B88E96-1B57-9A43-93F2-982B76B39EEB}"/>
+    <workbookView xWindow="3240" yWindow="13640" windowWidth="28040" windowHeight="17440" xr2:uid="{31B88E96-1B57-9A43-93F2-982B76B39EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="44">
   <si>
     <t>unet1_1</t>
   </si>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>layers_in_block</t>
+  </si>
+  <si>
+    <t>up_op_config</t>
+  </si>
+  <si>
+    <t>down_op_config</t>
+  </si>
+  <si>
+    <t>k=2,s=2</t>
+  </si>
+  <si>
+    <t>k=3,s=2,p=1</t>
+  </si>
+  <si>
+    <t>k=3,s=2,p_i=1,p_o=1</t>
+  </si>
+  <si>
+    <t>k=2</t>
+  </si>
+  <si>
+    <t>k=3</t>
+  </si>
+  <si>
+    <t>Need to check this:</t>
   </si>
 </sst>
 </file>
@@ -568,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E2062A-0AB6-684A-97E3-17438DF40C1D}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,10 +607,12 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -609,10 +635,16 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,11 +666,13 @@
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -660,11 +694,13 @@
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -686,11 +722,13 @@
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,11 +750,16 @@
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -739,10 +782,22 @@
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -765,10 +820,22 @@
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -791,10 +858,22 @@
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -817,90 +896,76 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="M9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>3</v>
@@ -909,24 +974,26 @@
         <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6">
         <v>3</v>
@@ -935,76 +1002,82 @@
         <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="B17" s="8">
         <v>3</v>
@@ -1013,24 +1086,26 @@
         <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>3</v>
@@ -1039,44 +1114,104 @@
         <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B21" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
         <v>22</v>
       </c>
     </row>

--- a/log/unet_configs.xlsx
+++ b/log/unet_configs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmartinez-villar/Desktop/S2-waterbodies/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5167835-C9F8-0C4C-B208-E47F36564FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907DEC8B-6CDB-8C43-90C3-630295586FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="13640" windowWidth="28040" windowHeight="17440" xr2:uid="{31B88E96-1B57-9A43-93F2-982B76B39EEB}"/>
+    <workbookView xWindow="17760" yWindow="3340" windowWidth="28040" windowHeight="17440" xr2:uid="{31B88E96-1B57-9A43-93F2-982B76B39EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="48">
   <si>
     <t>unet1_1</t>
   </si>
@@ -143,15 +143,6 @@
     <t>stackable_block</t>
   </si>
   <si>
-    <t>layers_in_block</t>
-  </si>
-  <si>
-    <t>up_op_config</t>
-  </si>
-  <si>
-    <t>down_op_config</t>
-  </si>
-  <si>
     <t>k=2,s=2</t>
   </si>
   <si>
@@ -168,6 +159,27 @@
   </si>
   <si>
     <t>Need to check this:</t>
+  </si>
+  <si>
+    <t># parameters</t>
+  </si>
+  <si>
+    <t>block_convs</t>
+  </si>
+  <si>
+    <t>unet2_5</t>
+  </si>
+  <si>
+    <t>unet2_6</t>
+  </si>
+  <si>
+    <t>encoder_down_op</t>
+  </si>
+  <si>
+    <t>decoder_up_op</t>
+  </si>
+  <si>
+    <t>&gt;10GB</t>
   </si>
 </sst>
 </file>
@@ -592,16 +604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E2062A-0AB6-684A-97E3-17438DF40C1D}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
@@ -610,14 +622,15 @@
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -635,16 +648,19 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +687,11 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>7762592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,8 +718,11 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K3" s="1">
+        <v>8545952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,8 +749,11 @@
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="1">
+        <v>14986848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -755,11 +780,14 @@
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <v>3334080</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -782,22 +810,25 @@
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>41</v>
+      <c r="K6" s="2">
+        <v>7762592</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -820,22 +851,25 @@
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>42</v>
+      <c r="K7" s="2">
+        <v>8545952</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -858,22 +892,25 @@
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>41</v>
+      <c r="K8" s="2">
+        <v>14986848</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -896,23 +933,28 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>42</v>
+      <c r="K9" s="2">
+        <v>3334080</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
@@ -922,9 +964,12 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
@@ -934,8 +979,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -962,8 +1008,11 @@
       <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" s="4">
+        <v>14996096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1039,11 @@
       <c r="J13" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="6">
+        <v>11691552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1018,8 +1070,11 @@
       <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="6">
+        <v>12474912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1046,8 +1101,11 @@
       <c r="J15" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" s="6">
+        <v>21266848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1074,8 +1132,11 @@
       <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="6">
+        <v>4905056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -1102,8 +1163,11 @@
       <c r="J17" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="8">
+        <v>11691552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
@@ -1130,8 +1194,11 @@
       <c r="J18" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="8">
+        <v>12474912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -1158,8 +1225,11 @@
       <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="8">
+        <v>21266848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1256,11 @@
       <c r="J20" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="8">
+        <v>4905056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1213,6 +1286,12 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
         <v>22</v>
+      </c>
+      <c r="K21" s="10">
+        <v>21276096</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
